--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9919978235318744</v>
+        <v>0.9717922210075697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8334597025105441</v>
+        <v>0.6443252635344991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.959680365473069</v>
+        <v>0.9903848125876391</v>
       </c>
       <c r="E2" t="n">
-        <v>0.992973246767514</v>
+        <v>0.1263598138728296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9905812961888246</v>
+        <v>0.8565089306939007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05351059088899054</v>
+        <v>0.1886255480072607</v>
       </c>
       <c r="H2" t="n">
-        <v>1.11365573615955</v>
+        <v>2.378398600476376</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07323147450526557</v>
+        <v>0.03479649045852942</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09564623067097169</v>
+        <v>1.143351198438473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08443880351465455</v>
+        <v>0.589074367756487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9995003075917152</v>
+        <v>0.9367030350697056</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2313235631944799</v>
+        <v>0.4343104281585473</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005190600952298</v>
+        <v>1.01829693772482</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2411714861854584</v>
+        <v>0.4527999222317838</v>
       </c>
       <c r="P2" t="n">
-        <v>127.8557513682598</v>
+        <v>125.3359829132492</v>
       </c>
       <c r="Q2" t="n">
-        <v>202.20717668522</v>
+        <v>199.6874082302094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9918108591292187</v>
+        <v>0.9718052954100157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8334321681211282</v>
+        <v>0.6442025115762624</v>
       </c>
       <c r="D3" t="n">
-        <v>0.966337724153149</v>
+        <v>0.9904431072102927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9943746119741681</v>
+        <v>0.1267520321743291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99231952464359</v>
+        <v>0.8565971706638824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05476082271044068</v>
+        <v>0.1885381194179025</v>
       </c>
       <c r="H3" t="n">
-        <v>1.113839858748358</v>
+        <v>2.379219443386326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0611398918762849</v>
+        <v>0.03458552751064734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07657123324680604</v>
+        <v>1.142837894137469</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06885556256154547</v>
+        <v>0.5887121159119699</v>
       </c>
       <c r="L3" t="n">
-        <v>1.092730309017873</v>
+        <v>0.9375285186510997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2340103047099437</v>
+        <v>0.4342097643051139</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005311875159426</v>
+        <v>1.018288457031341</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2439726078495571</v>
+        <v>0.4526949729097068</v>
       </c>
       <c r="P3" t="n">
-        <v>127.8095605094883</v>
+        <v>125.3369101350203</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1609858264485</v>
+        <v>199.6883354519805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9919917214539119</v>
+        <v>0.9718187554754496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8332908059191774</v>
+        <v>0.6440651465571539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9529639347895803</v>
+        <v>0.9905075492532195</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9915335015013984</v>
+        <v>0.1271721920224395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9888079454207417</v>
+        <v>0.8566926540693462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05355139551242336</v>
+        <v>0.1884481118983677</v>
       </c>
       <c r="H4" t="n">
-        <v>1.114785148443716</v>
+        <v>2.380138003901612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08543034803512767</v>
+        <v>0.03435231760680846</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1152436468992354</v>
+        <v>1.142288022149548</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1003369164684825</v>
+        <v>0.588320127567491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9157205269445798</v>
+        <v>0.9384430550965113</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2314117445429755</v>
+        <v>0.4341061067277995</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005194559056922</v>
+        <v>1.018279726178087</v>
       </c>
       <c r="O4" t="n">
-        <v>0.24126342159652</v>
+        <v>0.4525869024147254</v>
       </c>
       <c r="P4" t="n">
-        <v>127.8542268448774</v>
+        <v>125.3378651568621</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.2056521618377</v>
+        <v>199.6892904738224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913615041268002</v>
+        <v>0.9718323715835391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8331330114022879</v>
+        <v>0.6439111966632446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9727194956246443</v>
+        <v>0.9905789662238779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956831026916929</v>
+        <v>0.1276176033321479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9939593282856258</v>
+        <v>0.856795064649758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05776566168070245</v>
+        <v>0.1883570609208774</v>
       </c>
       <c r="H5" t="n">
-        <v>1.115840321104733</v>
+        <v>2.381167467551058</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04954885092820585</v>
+        <v>0.03409386607263494</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05876041780211371</v>
+        <v>1.141705103045277</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05415470134875371</v>
+        <v>0.5878997010684804</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19645309897667</v>
+        <v>0.9394573492878925</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2403448807041715</v>
+        <v>0.4340012222573543</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005603348674508</v>
+        <v>1.018270894107975</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2505768598582393</v>
+        <v>0.4524775527952325</v>
       </c>
       <c r="P5" t="n">
-        <v>127.702721536827</v>
+        <v>125.3388317144981</v>
       </c>
       <c r="Q5" t="n">
-        <v>202.0541468537872</v>
+        <v>199.6902570314583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9918462042977707</v>
+        <v>0.9718457999013318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8329834383502507</v>
+        <v>0.6437383655564448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9463430606874815</v>
+        <v>0.9906580030985359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9900948698894915</v>
+        <v>0.1280853617145294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9870450946322825</v>
+        <v>0.8569044297485648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05452446940558459</v>
+        <v>0.1882672656979653</v>
       </c>
       <c r="H6" t="n">
-        <v>1.116840516792427</v>
+        <v>2.382323189958042</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09745566470030137</v>
+        <v>0.03380783879755799</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1348259043729792</v>
+        <v>1.141092937859233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1161408969669177</v>
+        <v>0.5874507241617932</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8404475779983759</v>
+        <v>0.9405845480489745</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2335047524261221</v>
+        <v>0.4338977594986695</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005288948563608</v>
+        <v>1.018262183847785</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2434455331583758</v>
+        <v>0.4523696854127131</v>
       </c>
       <c r="P6" t="n">
-        <v>127.8182113963106</v>
+        <v>125.3397853993056</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.1696367132708</v>
+        <v>199.6912107162659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9916024208224669</v>
+        <v>0.9718587903295411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8325819414803712</v>
+        <v>0.6435442626850616</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9399242398713971</v>
+        <v>0.9907453497999491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9886851758508386</v>
+        <v>0.128574895892186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9853247083849148</v>
+        <v>0.8570211582143188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05615465062746063</v>
+        <v>0.1881803986447141</v>
       </c>
       <c r="H7" t="n">
-        <v>1.119525328210033</v>
+        <v>2.383621156752743</v>
       </c>
       <c r="I7" t="n">
-        <v>0.109113997382682</v>
+        <v>0.03349173901375161</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1540142715655433</v>
+        <v>1.140452274234107</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1315641822960978</v>
+        <v>0.586971518400099</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7728638194242993</v>
+        <v>0.9418347843870404</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2369697251284658</v>
+        <v>0.4337976471175404</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005447078385427</v>
+        <v>1.018253757624081</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2470580169221405</v>
+        <v>0.4522653110402581</v>
       </c>
       <c r="P7" t="n">
-        <v>127.7592915523228</v>
+        <v>125.3407084179669</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.1107168692831</v>
+        <v>199.6921337349271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9905601834209147</v>
+        <v>0.9718706674181066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8324648540428696</v>
+        <v>0.643326114734452</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9785242618732206</v>
+        <v>0.9908418172217829</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9968239346877529</v>
+        <v>0.1290793538811996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9954134236837672</v>
+        <v>0.8571439354637506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06312409693070245</v>
+        <v>0.1881009764987884</v>
       </c>
       <c r="H8" t="n">
-        <v>1.120308292443745</v>
+        <v>2.385079913102948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03900580914399272</v>
+        <v>0.03314263217064601</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04323172672078857</v>
+        <v>1.139792079504675</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04111871698437272</v>
+        <v>0.5864674805464984</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31186206020279</v>
+        <v>0.9432282511173947</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2512450933465218</v>
+        <v>0.4337060946064609</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006123124267515</v>
+        <v>1.018246053566634</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2619411171193252</v>
+        <v>0.4521698609492421</v>
       </c>
       <c r="P8" t="n">
-        <v>127.5253053950744</v>
+        <v>125.341552702615</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.8767307120347</v>
+        <v>199.6929780195753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9912922167024548</v>
+        <v>0.9718807421162085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8321202175578579</v>
+        <v>0.6430806151365382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9337807305399533</v>
+        <v>0.9909483139474888</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9873241037226377</v>
+        <v>0.1295891574037478</v>
       </c>
       <c r="F9" t="n">
-        <v>0.983669120446224</v>
+        <v>0.857272225362482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05822898700633967</v>
+        <v>0.1880336069461911</v>
       </c>
       <c r="H9" t="n">
-        <v>1.122612878205923</v>
+        <v>2.386721570044619</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1202722891741907</v>
+        <v>0.03275723018720361</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1725408106977109</v>
+        <v>1.139124888963616</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1464065499359508</v>
+        <v>0.5859408115952512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7121673611876516</v>
+        <v>0.9447743243316306</v>
       </c>
       <c r="M9" t="n">
-        <v>0.241306831661144</v>
+        <v>0.4336284203626316</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005648291868678</v>
+        <v>1.018239518627324</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2515797630589631</v>
+        <v>0.4520888799520452</v>
       </c>
       <c r="P9" t="n">
-        <v>127.6867439794131</v>
+        <v>125.3422691435517</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.0381692963734</v>
+        <v>199.6936944605119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9909396786635196</v>
+        <v>0.971888124201553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8316237467887549</v>
+        <v>0.6428038823709414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9279564727824786</v>
+        <v>0.9910658176325603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9860244339053764</v>
+        <v>0.1300975116622255</v>
       </c>
       <c r="F10" t="n">
-        <v>0.982092482491835</v>
+        <v>0.857404879650878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06058641049598764</v>
+        <v>0.1879842429075006</v>
       </c>
       <c r="H10" t="n">
-        <v>1.125932780524953</v>
+        <v>2.388572083322402</v>
       </c>
       <c r="I10" t="n">
-        <v>0.130850732865036</v>
+        <v>0.03233199501693813</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1902315584762394</v>
+        <v>1.138459595104781</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1605411299284163</v>
+        <v>0.5853962255004862</v>
       </c>
       <c r="L10" t="n">
-        <v>0.657576536336709</v>
+        <v>0.9464863476185442</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2461430691609813</v>
+        <v>0.4335714968808496</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00587696519123</v>
+        <v>1.018234730247641</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2566218892015603</v>
+        <v>0.4520295331197958</v>
       </c>
       <c r="P10" t="n">
-        <v>127.6073693205912</v>
+        <v>125.3427942679732</v>
       </c>
       <c r="Q10" t="n">
-        <v>201.9587946375515</v>
+        <v>199.6942195849335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9892913345761095</v>
+        <v>0.9718915472140341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.831301917887757</v>
+        <v>0.6424916103141829</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9833413633780023</v>
+        <v>0.991195317124005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9976953722646406</v>
+        <v>0.1305851127709732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.996562940889277</v>
+        <v>0.8575397157468688</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07160889499842629</v>
+        <v>0.1879613532072782</v>
       </c>
       <c r="H11" t="n">
-        <v>1.128084851867812</v>
+        <v>2.390660248003828</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03025663643507166</v>
+        <v>0.03186334811228722</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03136995831415092</v>
+        <v>1.137821461327398</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03081328012186136</v>
+        <v>0.5848426824236895</v>
       </c>
       <c r="L11" t="n">
-        <v>1.440288467633892</v>
+        <v>0.9483924569323002</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2675983837739426</v>
+        <v>0.4335450993925294</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006946161356037</v>
+        <v>1.018232509915221</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2789906009762194</v>
+        <v>0.4520020118357476</v>
       </c>
       <c r="P11" t="n">
-        <v>127.2730719618202</v>
+        <v>125.3430378106612</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.6244972787804</v>
+        <v>199.6944631276214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.990563245683367</v>
+        <v>0.9718894944306053</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8311118174454803</v>
+        <v>0.6421387557653326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9224794609913732</v>
+        <v>0.9913380836504287</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9847944688136676</v>
+        <v>0.1310342982014479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9806039297116881</v>
+        <v>0.8576742770880805</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06310361956758337</v>
+        <v>0.1879750801795181</v>
       </c>
       <c r="H12" t="n">
-        <v>1.129356054400647</v>
+        <v>2.393019787996735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1407984829885513</v>
+        <v>0.03134668901231864</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2069735047189146</v>
+        <v>1.13723360295228</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1738860251755608</v>
+        <v>0.5842902672986082</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6084746819730134</v>
+        <v>0.9505111534356288</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2512043382738112</v>
+        <v>0.4335609301811201</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006121137935113</v>
+        <v>1.018233841450418</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2618986270187947</v>
+        <v>0.4520185165737828</v>
       </c>
       <c r="P12" t="n">
-        <v>127.5259542973557</v>
+        <v>125.3428917543492</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.877379614316</v>
+        <v>199.6943170713095</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_12</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9901765911482459</v>
+        <v>0.9718800262165423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8305985025693335</v>
+        <v>0.6417393812581498</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9173603789380007</v>
+        <v>0.9914950937930742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.983638626495834</v>
+        <v>0.131420574427667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9792079140953621</v>
+        <v>0.8578050805607454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06568918022431888</v>
+        <v>0.1880383941705546</v>
       </c>
       <c r="H13" t="n">
-        <v>1.132788593341039</v>
+        <v>2.395690407165217</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1500961348963711</v>
+        <v>0.03077848355816053</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2227065121681694</v>
+        <v>1.136728075169574</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1864013235322702</v>
+        <v>0.5837532793638674</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5643073053455491</v>
+        <v>0.9528504050068313</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2562990055078616</v>
+        <v>0.4336339402889891</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006371940876813</v>
+        <v>1.018239982994675</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2672101847844137</v>
+        <v>0.4520946348730955</v>
       </c>
       <c r="P13" t="n">
-        <v>127.4456421032298</v>
+        <v>125.3422182253833</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.7970674201901</v>
+        <v>199.6936435423436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9897899199887207</v>
+        <v>0.9718605469321667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8300941547803629</v>
+        <v>0.6412865853495553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9126009938066363</v>
+        <v>0.9916674641454583</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9825588403014713</v>
+        <v>0.1317079538919895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9779060701355315</v>
+        <v>0.8579269458336721</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06827485204852016</v>
+        <v>0.1881686522348682</v>
       </c>
       <c r="H14" t="n">
-        <v>1.136161169328194</v>
+        <v>2.398718255490922</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587404788989303</v>
+        <v>0.03015469089923095</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2374042646015225</v>
+        <v>1.136351975649248</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1980723717502264</v>
+        <v>0.5832529854504701</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5245812444783902</v>
+        <v>0.9554567279476791</v>
       </c>
       <c r="M14" t="n">
-        <v>0.261294569496804</v>
+        <v>0.4337841078634258</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006622754601911</v>
+        <v>1.018252618206162</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2724184202746084</v>
+        <v>0.4522511953920657</v>
       </c>
       <c r="P14" t="n">
-        <v>127.3684275572364</v>
+        <v>125.340833263876</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7198528741966</v>
+        <v>199.6922585808362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9894106394668787</v>
+        <v>0.9718278498294214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8296060167506735</v>
+        <v>0.6407723519470817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9081945563799625</v>
+        <v>0.9918567942627114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9815550416282581</v>
+        <v>0.1318519661774877</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9766976690162198</v>
+        <v>0.858033378331996</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07081110264450388</v>
+        <v>0.1883872979114829</v>
       </c>
       <c r="H15" t="n">
-        <v>1.139425350580396</v>
+        <v>2.40215693662109</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1667437734192457</v>
+        <v>0.02946952239070585</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2510676958148881</v>
+        <v>1.136163503756782</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2089057036742425</v>
+        <v>0.5828160477583749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4888389776843009</v>
+        <v>0.9583470991455815</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2661035562417456</v>
+        <v>0.4340360560039718</v>
       </c>
       <c r="N15" t="n">
-        <v>1.006868774399863</v>
+        <v>1.018273827137673</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2774321355412572</v>
+        <v>0.4525138694865593</v>
       </c>
       <c r="P15" t="n">
-        <v>127.2954789471284</v>
+        <v>125.3385106799295</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.6469042640886</v>
+        <v>199.6899359968898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_0</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9874056251326214</v>
+        <v>0.9717779005511916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.829482024170473</v>
+        <v>0.6401871006266241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9866100445255571</v>
+        <v>0.9920643179748591</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9981594678582211</v>
+        <v>0.1317964460854226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9972463693368726</v>
+        <v>0.8581159402075971</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08421864272992435</v>
+        <v>0.1887213089650008</v>
       </c>
       <c r="H16" t="n">
-        <v>1.14025448953513</v>
+        <v>2.406070514895824</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02431981823392649</v>
+        <v>0.02871851291372167</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0250528168508971</v>
+        <v>1.136236164063402</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02468633510269884</v>
+        <v>0.5824771062137498</v>
       </c>
       <c r="L16" t="n">
-        <v>1.583226987003962</v>
+        <v>0.9615543818681257</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2902044843380687</v>
+        <v>0.4344206589988565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0081693242383</v>
+        <v>1.018306226669497</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3025590900424396</v>
+        <v>0.4529148458271742</v>
       </c>
       <c r="P16" t="n">
-        <v>126.9486779442947</v>
+        <v>125.3349678157809</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.3001032612549</v>
+        <v>199.6863931327411</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9890439828537549</v>
+        <v>0.9717055995205491</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8291390706761582</v>
+        <v>0.6395198508497292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.904130506901769</v>
+        <v>0.9922911149307033</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9806256003041465</v>
+        <v>0.1314700494671966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9755803931438899</v>
+        <v>0.858163773645835</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07326293710476063</v>
+        <v>0.1892047862898225</v>
       </c>
       <c r="H17" t="n">
-        <v>1.142547821130768</v>
+        <v>2.410532417226324</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1741251978602752</v>
+        <v>0.02789775531726428</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2637189952614264</v>
+        <v>1.136663326149741</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2189220965608508</v>
+        <v>0.5822807354394304</v>
       </c>
       <c r="L17" t="n">
-        <v>0.45668448444871</v>
+        <v>0.9651162927913159</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2706712712955711</v>
+        <v>0.4349767652298482</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007106605716483</v>
+        <v>1.018353124635319</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2821943076813976</v>
+        <v>0.4534946266517178</v>
       </c>
       <c r="P17" t="n">
-        <v>127.2274008618301</v>
+        <v>125.3298506503388</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.5788261787903</v>
+        <v>199.6812759672991</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9886935180264969</v>
+        <v>0.971604463148229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8286964824535576</v>
+        <v>0.6387572958164116</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9003931999106305</v>
+        <v>0.9925387973594993</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9797681327674552</v>
+        <v>0.1307773442693168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9745508533747262</v>
+        <v>0.858162508098249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07560649701837797</v>
+        <v>0.1898810856772172</v>
       </c>
       <c r="H18" t="n">
-        <v>1.14550741061323</v>
+        <v>2.415631626245361</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1809131686554248</v>
+        <v>0.02700141509000379</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2753906073265948</v>
+        <v>1.137569883941767</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2281519341289234</v>
+        <v>0.5822859308961763</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4277601217239755</v>
+        <v>0.969058922090095</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2749663561572179</v>
+        <v>0.4357534689216108</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007333934253083</v>
+        <v>1.018418726606554</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2866722431976561</v>
+        <v>0.454304396227637</v>
       </c>
       <c r="P18" t="n">
-        <v>127.1644261201854</v>
+        <v>125.3227145352271</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.5158514371456</v>
+        <v>199.6741398521874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9883615211588787</v>
+        <v>0.9714663956785866</v>
       </c>
       <c r="C19" t="n">
-        <v>0.828280084146254</v>
+        <v>0.6378840288169932</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8969655865842572</v>
+        <v>0.992808492958439</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9789793127893357</v>
+        <v>0.1296008345731494</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9736048061313114</v>
+        <v>0.8580939192309756</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07782656160084606</v>
+        <v>0.1908043434824586</v>
       </c>
       <c r="H19" t="n">
-        <v>1.148291868011508</v>
+        <v>2.421471166691497</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1871386511249288</v>
+        <v>0.02602541119816641</v>
       </c>
       <c r="J19" t="n">
-        <v>0.286127807721833</v>
+        <v>1.139109606807596</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2366332601058055</v>
+        <v>0.5825675090028813</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4017358810156803</v>
+        <v>0.9734369958266043</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2789741235327142</v>
+        <v>0.4368115651885359</v>
       </c>
       <c r="N19" t="n">
-        <v>1.007549283572619</v>
+        <v>1.01850828388416</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2908506295275494</v>
+        <v>0.4554075378432065</v>
       </c>
       <c r="P19" t="n">
-        <v>127.1065449946265</v>
+        <v>125.3130135112879</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.4579703115868</v>
+        <v>199.6644388282481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9880492331622783</v>
+        <v>0.9712813709844371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8278907731493501</v>
+        <v>0.6368815474838697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8938278725727693</v>
+        <v>0.9931013379468258</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9782554621130349</v>
+        <v>0.1277942052115866</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9727374402006626</v>
+        <v>0.85793500153603</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07991483287206629</v>
+        <v>0.1920416044641965</v>
       </c>
       <c r="H20" t="n">
-        <v>1.150895192440415</v>
+        <v>2.428174763982096</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1928375972173991</v>
+        <v>0.02496563176722902</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2959806638655103</v>
+        <v>1.141473980469061</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2444092070791533</v>
+        <v>0.5832199143485803</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3783193878332199</v>
+        <v>0.9782820155402463</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2826921167490637</v>
+        <v>0.4382255178149676</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007751848759603</v>
+        <v>1.018628299901987</v>
       </c>
       <c r="O20" t="n">
-        <v>0.294726905412426</v>
+        <v>0.4568816853602308</v>
       </c>
       <c r="P20" t="n">
-        <v>127.0535876009698</v>
+        <v>125.3000864810211</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.4050129179301</v>
+        <v>199.6515117979813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9877573457832851</v>
+        <v>0.97103677273585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8275285851361383</v>
+        <v>0.6357278327555704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8909633231451864</v>
+        <v>0.9934185766658529</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9775927214201082</v>
+        <v>0.1251703143129216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.971944151048686</v>
+        <v>0.8576566475618153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08186668511941197</v>
+        <v>0.19367723407877</v>
       </c>
       <c r="H21" t="n">
-        <v>1.153317145352486</v>
+        <v>2.435889659682601</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1980404017774203</v>
+        <v>0.02381757363936419</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3050017077378986</v>
+        <v>1.14490792141088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2515210547576595</v>
+        <v>0.5843626418518738</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3572493375239123</v>
+        <v>0.9836579343485444</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2861235486977819</v>
+        <v>0.4400877572470859</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007941181113545</v>
+        <v>1.018786958225395</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2983044205232445</v>
+        <v>0.4588232041803414</v>
       </c>
       <c r="P21" t="n">
-        <v>127.0053262919546</v>
+        <v>125.2831244946727</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.3567516089149</v>
+        <v>199.6345498116329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9874858018347499</v>
+        <v>0.9707167015997912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8271930979728135</v>
+        <v>0.6343965840285308</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8883505026814853</v>
+        <v>0.9937608917296096</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9769871602677476</v>
+        <v>0.121491154213103</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9712197629769539</v>
+        <v>0.8572211412657819</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08368250075361189</v>
+        <v>0.1958175512393869</v>
       </c>
       <c r="H22" t="n">
-        <v>1.155560549558415</v>
+        <v>2.444791726050151</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2027859977486975</v>
+        <v>0.02257876649614553</v>
       </c>
       <c r="J22" t="n">
-        <v>0.313244439444528</v>
+        <v>1.149722915244924</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2580152033457885</v>
+        <v>0.5861505273086512</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3382934845183614</v>
+        <v>0.9896114442189643</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2892792781268854</v>
+        <v>0.4425127695777681</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008117317728811</v>
+        <v>1.018994571935271</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3015944958874053</v>
+        <v>0.4613514543064083</v>
       </c>
       <c r="P22" t="n">
-        <v>126.9614507887783</v>
+        <v>125.2611438285907</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.3128761057386</v>
+        <v>199.6125691455509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9872342929179404</v>
+        <v>0.9703017710416699</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8268833828141618</v>
+        <v>0.632856504787862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8859721177530893</v>
+        <v>0.9941287509646656</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9764347201986018</v>
+        <v>0.1164698129808049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9705594551139072</v>
+        <v>0.8565827955838209</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08536434203840872</v>
+        <v>0.1985921937921232</v>
       </c>
       <c r="H23" t="n">
-        <v>1.157631616250426</v>
+        <v>2.455090243023917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2071057947233255</v>
+        <v>0.02124751731568201</v>
       </c>
       <c r="J23" t="n">
-        <v>0.320764101589644</v>
+        <v>1.156294449621297</v>
       </c>
       <c r="K23" t="n">
-        <v>0.263934872020456</v>
+        <v>0.5887711299763271</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3212351021281584</v>
+        <v>0.9962031128969194</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2921717680379278</v>
+        <v>0.4456368407034176</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008280458647822</v>
+        <v>1.019263716081079</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3046101250822404</v>
+        <v>0.4646085236075955</v>
       </c>
       <c r="P23" t="n">
-        <v>126.9216536118316</v>
+        <v>125.2330036686525</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.2730789287918</v>
+        <v>199.5844289856127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9870021528483395</v>
+        <v>0.9697676525531529</v>
       </c>
       <c r="C24" t="n">
-        <v>0.826598400172191</v>
+        <v>0.6310701258151239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8838093309212942</v>
+        <v>0.9945219994535051</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9759315464573223</v>
+        <v>0.1097438464094224</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9699583725243177</v>
+        <v>0.855683979779948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08691666375273702</v>
+        <v>0.2021638465842265</v>
       </c>
       <c r="H24" t="n">
-        <v>1.159537296489509</v>
+        <v>2.467035767440135</v>
       </c>
       <c r="I24" t="n">
-        <v>0.211034006637725</v>
+        <v>0.01982438673040152</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3276131640419153</v>
+        <v>1.165096862859793</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2693235853398201</v>
+        <v>0.5924610415084967</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3058855610336091</v>
+        <v>1.003499272764066</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2948163220595784</v>
+        <v>0.4496263410702563</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008431035990266</v>
+        <v>1.019610171316874</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3073672632435741</v>
+        <v>0.4687678652644547</v>
       </c>
       <c r="P24" t="n">
-        <v>126.8856110145898</v>
+        <v>125.1973535773165</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.2370363315501</v>
+        <v>199.5487788942768</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9867885830626316</v>
+        <v>0.9690842701259327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8263369044557471</v>
+        <v>0.6289922275627033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8818453161240652</v>
+        <v>0.994940187524691</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9754738720100234</v>
+        <v>0.100861673024114</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9694119747664082</v>
+        <v>0.8544526598589313</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08834480589316412</v>
+        <v>0.206733628021735</v>
       </c>
       <c r="H25" t="n">
-        <v>1.161285919549446</v>
+        <v>2.480930682621914</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2146011942186335</v>
+        <v>0.01831100206041728</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3338429026296001</v>
+        <v>1.176721149088944</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2742220484241168</v>
+        <v>0.5975159833072203</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2920735713101396</v>
+        <v>1.011571102265411</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2972285415184149</v>
+        <v>0.4546796982731195</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008569567743158</v>
+        <v>1.0200534464048</v>
       </c>
       <c r="O25" t="n">
-        <v>0.309882175878756</v>
+        <v>0.4740363543453354</v>
       </c>
       <c r="P25" t="n">
-        <v>126.8530157441233</v>
+        <v>125.1526482710662</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.2044410610835</v>
+        <v>199.5040735880265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9865925510470676</v>
+        <v>0.9682146042791846</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8260974483505591</v>
+        <v>0.6265687792170147</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8800629202760277</v>
+        <v>0.9953818892039651</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9750579948987397</v>
+        <v>0.08927712869585192</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9689157054054063</v>
+        <v>0.8528008158004662</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0896556728838853</v>
+        <v>0.2125490875433826</v>
       </c>
       <c r="H26" t="n">
-        <v>1.162887163627433</v>
+        <v>2.497136292868486</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2178385121565396</v>
+        <v>0.01671252377713197</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3395037073854479</v>
+        <v>1.191882084736602</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2786711097709937</v>
+        <v>0.6042973042568668</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2796447613504298</v>
+        <v>1.020486367136452</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2994255715263566</v>
+        <v>0.4610304627065142</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008696723645145</v>
+        <v>1.020617553981069</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3121727380026149</v>
+        <v>0.4806574839685543</v>
       </c>
       <c r="P26" t="n">
-        <v>126.8235576056164</v>
+        <v>125.0971646341799</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.1749829225766</v>
+        <v>199.4485899511401</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9717922210075697</v>
+        <v>0.9918810081198113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6443252635344991</v>
+        <v>0.8269811559540743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9903848125876391</v>
+        <v>0.7692773503791303</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1263598138728296</v>
+        <v>0.9974770548165242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8565089306939007</v>
+        <v>0.9862111742207265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1886255480072607</v>
+        <v>0.0542917360873419</v>
       </c>
       <c r="H2" t="n">
-        <v>2.378398600476376</v>
+        <v>1.156977806813627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03479649045852942</v>
+        <v>0.2819497114528352</v>
       </c>
       <c r="J2" t="n">
-        <v>1.143351198438473</v>
+        <v>0.0573721699962264</v>
       </c>
       <c r="K2" t="n">
-        <v>0.589074367756487</v>
+        <v>0.1696609407245308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9367030350697056</v>
+        <v>0.3350416664384785</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4343104281585473</v>
+        <v>0.2330058713580881</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01829693772482</v>
+        <v>1.005266373111474</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4527999222317838</v>
+        <v>0.2429254136904494</v>
       </c>
       <c r="P2" t="n">
-        <v>125.3359829132492</v>
+        <v>127.8267665070887</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.6874082302094</v>
+        <v>202.178191824049</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9718052954100157</v>
+        <v>0.9918834458963673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6442025115762624</v>
+        <v>0.8269809590290558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9904431072102927</v>
+        <v>0.7693125732467281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1267520321743291</v>
+        <v>0.9974796346145063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8565971706638824</v>
+        <v>0.9862153092293666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1885381194179025</v>
+        <v>0.05427543466428645</v>
       </c>
       <c r="H3" t="n">
-        <v>2.379219443386326</v>
+        <v>1.156979123652133</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03458552751064734</v>
+        <v>0.2819066680959214</v>
       </c>
       <c r="J3" t="n">
-        <v>1.142837894137469</v>
+        <v>0.05731350498465317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5887121159119699</v>
+        <v>0.1696100626101054</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9375285186510997</v>
+        <v>0.3349042358186274</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4342097643051139</v>
+        <v>0.2329708880188391</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018288457031341</v>
+        <v>1.005264791851005</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4526949729097068</v>
+        <v>0.242888941038023</v>
       </c>
       <c r="P3" t="n">
-        <v>125.3369101350203</v>
+        <v>127.827367109391</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.6883354519805</v>
+        <v>202.1787924263513</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9718187554754496</v>
+        <v>0.9918861495330489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6440651465571539</v>
+        <v>0.8269807375894216</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9905075492532195</v>
+        <v>0.7693504563073318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1271721920224395</v>
+        <v>0.9974825082963648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8566926540693462</v>
+        <v>0.9862198440222211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1884481118983677</v>
+        <v>0.05425735543334857</v>
       </c>
       <c r="H4" t="n">
-        <v>2.380138003901612</v>
+        <v>1.156980604419986</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03435231760680846</v>
+        <v>0.2818603739066698</v>
       </c>
       <c r="J4" t="n">
-        <v>1.142288022149548</v>
+        <v>0.05724815700754431</v>
       </c>
       <c r="K4" t="n">
-        <v>0.588320127567491</v>
+        <v>0.1695542654571071</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9384430550965113</v>
+        <v>0.3347513398384391</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4341061067277995</v>
+        <v>0.2329320833061615</v>
       </c>
       <c r="N4" t="n">
-        <v>1.018279726178087</v>
+        <v>1.005263038140725</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4525869024147254</v>
+        <v>0.24284848432839</v>
       </c>
       <c r="P4" t="n">
-        <v>125.3378651568621</v>
+        <v>127.8280334234548</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.6892904738224</v>
+        <v>202.179458740415</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9718323715835391</v>
+        <v>0.9918891072115156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6439111966632446</v>
+        <v>0.8269804863057092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9905789662238779</v>
+        <v>0.7693943381199927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1276176033321479</v>
+        <v>0.9974856763359815</v>
       </c>
       <c r="F5" t="n">
-        <v>0.856795064649758</v>
+        <v>0.9862249490607287</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1883570609208774</v>
+        <v>0.05423757742382283</v>
       </c>
       <c r="H5" t="n">
-        <v>2.381167467551058</v>
+        <v>1.156982284755328</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03409386607263494</v>
+        <v>0.2818067490699314</v>
       </c>
       <c r="J5" t="n">
-        <v>1.141705103045277</v>
+        <v>0.05717611528874651</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5878997010684804</v>
+        <v>0.1694914518680816</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9394573492878925</v>
+        <v>0.334583478293406</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4340012222573543</v>
+        <v>0.2328896249810687</v>
       </c>
       <c r="N5" t="n">
-        <v>1.018270894107975</v>
+        <v>1.005261119646585</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4524775527952325</v>
+        <v>0.2428042184644971</v>
       </c>
       <c r="P5" t="n">
-        <v>125.3388317144981</v>
+        <v>127.8287626007251</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.6902570314583</v>
+        <v>202.1801879176853</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9718457999013318</v>
+        <v>0.9918924243778239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6437383655564448</v>
+        <v>0.8269802198821427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9906580030985359</v>
+        <v>0.7694423713566428</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1280853617145294</v>
+        <v>0.9974892093513881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8569044297485648</v>
+        <v>0.9862306009682857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1882672656979653</v>
+        <v>0.05421539551744482</v>
       </c>
       <c r="H6" t="n">
-        <v>2.382323189958042</v>
+        <v>1.156984066330945</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03380783879755799</v>
+        <v>0.2817480510737186</v>
       </c>
       <c r="J6" t="n">
-        <v>1.141092937859233</v>
+        <v>0.0570957739631288</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5874507241617932</v>
+        <v>0.1694219094742352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9405845480489745</v>
+        <v>0.3343945431154332</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4338977594986695</v>
+        <v>0.2328419968936979</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018262183847785</v>
+        <v>1.005258967971141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4523696854127131</v>
+        <v>0.2427545627508432</v>
       </c>
       <c r="P6" t="n">
-        <v>125.3397853993056</v>
+        <v>127.8295807214676</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.6912107162659</v>
+        <v>202.1810060384278</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9718587903295411</v>
+        <v>0.9918961050094169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6435442626850616</v>
+        <v>0.8269798900745692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9907453497999491</v>
+        <v>0.7694953040883755</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128574895892186</v>
+        <v>0.9974931389575082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8570211582143188</v>
+        <v>0.9862368624994248</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1881803986447141</v>
+        <v>0.05419078311703455</v>
       </c>
       <c r="H7" t="n">
-        <v>2.383621156752743</v>
+        <v>1.156986271755707</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03349173901375161</v>
+        <v>0.2816833657536472</v>
       </c>
       <c r="J7" t="n">
-        <v>1.140452274234107</v>
+        <v>0.05700641410235123</v>
       </c>
       <c r="K7" t="n">
-        <v>0.586971518400099</v>
+        <v>0.169344866129107</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9418347843870404</v>
+        <v>0.3341909410655732</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4337976471175404</v>
+        <v>0.232789138743702</v>
       </c>
       <c r="N7" t="n">
-        <v>1.018253757624081</v>
+        <v>1.005256580534432</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4522653110402581</v>
+        <v>0.2426994543199705</v>
       </c>
       <c r="P7" t="n">
-        <v>125.3407084179669</v>
+        <v>127.8304888763769</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.6921337349271</v>
+        <v>202.1819141933372</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9718706674181066</v>
+        <v>0.9919001701500698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.643326114734452</v>
+        <v>0.8269795265600366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9908418172217829</v>
+        <v>0.7695542733691747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1290793538811996</v>
+        <v>0.9974974732078514</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8571439354637506</v>
+        <v>0.9862437941008172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1881009764987884</v>
+        <v>0.05416359950277032</v>
       </c>
       <c r="H8" t="n">
-        <v>2.385079913102948</v>
+        <v>1.15698870257906</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03314263217064601</v>
+        <v>0.2816113035970568</v>
       </c>
       <c r="J8" t="n">
-        <v>1.139792079504675</v>
+        <v>0.0569078525683442</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5864674805464984</v>
+        <v>0.1692595780827005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9432282511173947</v>
+        <v>0.3339568615672971</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4337060946064609</v>
+        <v>0.2327307446444717</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018246053566634</v>
+        <v>1.005253943686441</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4521698609492421</v>
+        <v>0.2426385742630436</v>
       </c>
       <c r="P8" t="n">
-        <v>125.341552702615</v>
+        <v>127.8314923840959</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.6929780195753</v>
+        <v>202.1829177010561</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9718807421162085</v>
+        <v>0.9919046950186942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6430806151365382</v>
+        <v>0.8269791677257637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9909483139474888</v>
+        <v>0.7696195565637849</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1295891574037478</v>
+        <v>0.9975022898446837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.857272225362482</v>
+        <v>0.9862514869412423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1880336069461911</v>
+        <v>0.05413334168544395</v>
       </c>
       <c r="H9" t="n">
-        <v>2.386721570044619</v>
+        <v>1.156991102105495</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03275723018720361</v>
+        <v>0.2815315256562552</v>
       </c>
       <c r="J9" t="n">
-        <v>1.139124888963616</v>
+        <v>0.05679832148976146</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5859408115952512</v>
+        <v>0.1691649235730083</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9447743243316306</v>
+        <v>0.3337040168600799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4336284203626316</v>
+        <v>0.2326657295036034</v>
       </c>
       <c r="N9" t="n">
-        <v>1.018239518627324</v>
+        <v>1.005251008636523</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4520888799520452</v>
+        <v>0.2425707912930286</v>
       </c>
       <c r="P9" t="n">
-        <v>125.3422691435517</v>
+        <v>127.8326099712698</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.6936944605119</v>
+        <v>202.1840352882301</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.971888124201553</v>
+        <v>0.9919097562340459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6428038823709414</v>
+        <v>0.8269786977317078</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9910658176325603</v>
+        <v>0.7696936138728907</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1300975116622255</v>
+        <v>0.9975076483043491</v>
       </c>
       <c r="F10" t="n">
-        <v>0.857404879650878</v>
+        <v>0.9862601156632106</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1879842429075006</v>
+        <v>0.05409949731508228</v>
       </c>
       <c r="H10" t="n">
-        <v>2.388572083322402</v>
+        <v>1.156994244957911</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03233199501693813</v>
+        <v>0.2814410254952711</v>
       </c>
       <c r="J10" t="n">
-        <v>1.138459595104781</v>
+        <v>0.05667646927479792</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5853962255004862</v>
+        <v>0.1690587537576934</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9464863476185442</v>
+        <v>0.3334152844073255</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4335714968808496</v>
+        <v>0.2325929863841175</v>
       </c>
       <c r="N10" t="n">
-        <v>1.018234730247641</v>
+        <v>1.005247725686024</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4520295331197958</v>
+        <v>0.2424949513483472</v>
       </c>
       <c r="P10" t="n">
-        <v>125.3427942679732</v>
+        <v>127.8338607698917</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.6942195849335</v>
+        <v>202.1852860868519</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9718915472140341</v>
+        <v>0.9919153163963774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6424916103141829</v>
+        <v>0.8269781772565563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.991195317124005</v>
+        <v>0.7697745500570576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1305851127709732</v>
+        <v>0.9975135930758026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8575397157468688</v>
+        <v>0.9862696288163317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1879613532072782</v>
+        <v>0.05406231648396911</v>
       </c>
       <c r="H11" t="n">
-        <v>2.390660248003828</v>
+        <v>1.156997725377645</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03186334811228722</v>
+        <v>0.2813421191511847</v>
       </c>
       <c r="J11" t="n">
-        <v>1.137821461327398</v>
+        <v>0.05654128423762428</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5848426824236895</v>
+        <v>0.1689417016944045</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9483924569323002</v>
+        <v>0.3331017881641789</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4335450993925294</v>
+        <v>0.2325130458360758</v>
       </c>
       <c r="N11" t="n">
-        <v>1.018232509915221</v>
+        <v>1.005244119094242</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4520020118357476</v>
+        <v>0.2424116075656756</v>
       </c>
       <c r="P11" t="n">
-        <v>125.3430378106612</v>
+        <v>127.835235777624</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.6944631276214</v>
+        <v>202.1866610945842</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9718894944306053</v>
+        <v>0.9919215034687762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6421387557653326</v>
+        <v>0.8269775886314283</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9913380836504287</v>
+        <v>0.7698637921202174</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1310342982014479</v>
+        <v>0.9975201869366934</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8576742770880805</v>
+        <v>0.9862801532049207</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1879750801795181</v>
+        <v>0.0540209435023503</v>
       </c>
       <c r="H12" t="n">
-        <v>2.393019787996735</v>
+        <v>1.157001661516587</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03134668901231864</v>
+        <v>0.2812330627841626</v>
       </c>
       <c r="J12" t="n">
-        <v>1.13723360295228</v>
+        <v>0.05639133880462847</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5842902672986082</v>
+        <v>0.1688122071531635</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9505111534356288</v>
+        <v>0.3327475140336297</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4335609301811201</v>
+        <v>0.2324240596460493</v>
       </c>
       <c r="N12" t="n">
-        <v>1.018233841450418</v>
+        <v>1.005240105858091</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4520185165737828</v>
+        <v>0.2423188330493129</v>
       </c>
       <c r="P12" t="n">
-        <v>125.3428917543492</v>
+        <v>127.8367669299465</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.6943170713095</v>
+        <v>202.1881922469068</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9718800262165423</v>
+        <v>0.9919283521441865</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6417393812581498</v>
+        <v>0.8269769284155062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9914950937930742</v>
+        <v>0.7699641194156999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.131420574427667</v>
+        <v>0.9975275040525005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8578050805607454</v>
+        <v>0.9862918974515619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1880383941705546</v>
+        <v>0.05397514637834604</v>
       </c>
       <c r="H13" t="n">
-        <v>2.395690407165217</v>
+        <v>1.157006076383499</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03077848355816053</v>
+        <v>0.2811104599445255</v>
       </c>
       <c r="J13" t="n">
-        <v>1.136728075169574</v>
+        <v>0.05622494644116473</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5837532793638674</v>
+        <v>0.1686677031928451</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9528504050068313</v>
+        <v>0.3323580401103184</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4336339402889891</v>
+        <v>0.2323255181385507</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018239982994675</v>
+        <v>1.005235663474041</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4520946348730955</v>
+        <v>0.2422160964258309</v>
       </c>
       <c r="P13" t="n">
-        <v>125.3422182253833</v>
+        <v>127.8384631812386</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.6936435423436</v>
+        <v>202.1898884981988</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9718605469321667</v>
+        <v>0.9919359578029885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6412865853495553</v>
+        <v>0.8269761981750833</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9916674641454583</v>
+        <v>0.7700747466659339</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1317079538919895</v>
+        <v>0.997535620580123</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8579269458336721</v>
+        <v>0.9863048903894551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1881686522348682</v>
+        <v>0.05392428730291643</v>
       </c>
       <c r="H14" t="n">
-        <v>2.398718255490922</v>
+        <v>1.157010959504569</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03015469089923095</v>
+        <v>0.280975270264043</v>
       </c>
       <c r="J14" t="n">
-        <v>1.136351975649248</v>
+        <v>0.05604037532737777</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5832529854504701</v>
+        <v>0.1685078350430082</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9554567279476791</v>
+        <v>0.331920145019206</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4337841078634258</v>
+        <v>0.2322160358436007</v>
       </c>
       <c r="N14" t="n">
-        <v>1.018252618206162</v>
+        <v>1.005230730073737</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4522511953920657</v>
+        <v>0.2421019532429253</v>
       </c>
       <c r="P14" t="n">
-        <v>125.340833263876</v>
+        <v>127.8403486064892</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.6922585808362</v>
+        <v>202.1917739234494</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9718278498294214</v>
+        <v>0.9919443941166965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6407723519470817</v>
+        <v>0.8269753529400974</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9918567942627114</v>
+        <v>0.770198196489406</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1318519661774877</v>
+        <v>0.997544621618098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.858033378331996</v>
+        <v>0.9863193399442032</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1883872979114829</v>
+        <v>0.05386787363430443</v>
       </c>
       <c r="H15" t="n">
-        <v>2.40215693662109</v>
+        <v>1.157016611594811</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02946952239070585</v>
+        <v>0.2808244110303957</v>
       </c>
       <c r="J15" t="n">
-        <v>1.136163503756782</v>
+        <v>0.05583569030915896</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5828160477583749</v>
+        <v>0.1683300443383575</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9583470991455815</v>
+        <v>0.3314384819981224</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4340360560039718</v>
+        <v>0.2320945359854567</v>
       </c>
       <c r="N15" t="n">
-        <v>1.018273827137673</v>
+        <v>1.005225257870251</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4525138694865593</v>
+        <v>0.2419752808842807</v>
       </c>
       <c r="P15" t="n">
-        <v>125.3385106799295</v>
+        <v>127.8424420304737</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.6899359968898</v>
+        <v>202.1938673474339</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9717779005511916</v>
+        <v>0.9919537601837926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6401871006266241</v>
+        <v>0.8269744078812518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9920643179748591</v>
+        <v>0.7703354589944668</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1317964460854226</v>
+        <v>0.9975545971841155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8581159402075971</v>
+        <v>0.9863353720520474</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1887213089650008</v>
+        <v>0.05380524270050712</v>
       </c>
       <c r="H16" t="n">
-        <v>2.406070514895824</v>
+        <v>1.157022931207663</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02871851291372167</v>
+        <v>0.2806566723027122</v>
       </c>
       <c r="J16" t="n">
-        <v>1.136236164063402</v>
+        <v>0.05560884437008869</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5824771062137498</v>
+        <v>0.1681327815298943</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9615543818681257</v>
+        <v>0.3309007266409151</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4344206589988565</v>
+        <v>0.2319595712629835</v>
       </c>
       <c r="N16" t="n">
-        <v>1.018306226669497</v>
+        <v>1.005219182583486</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4529148458271742</v>
+        <v>0.2418345704341564</v>
       </c>
       <c r="P16" t="n">
-        <v>125.3349678157809</v>
+        <v>127.8447687371947</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.6863931327411</v>
+        <v>202.1961940541549</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9717055995205491</v>
+        <v>0.9919641492259481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6395198508497292</v>
+        <v>0.8269733032912374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9922911149307033</v>
+        <v>0.7704884300314081</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1314700494671966</v>
+        <v>0.9975656698685521</v>
       </c>
       <c r="F17" t="n">
-        <v>0.858163773645835</v>
+        <v>0.9863532027826888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1892047862898225</v>
+        <v>0.05373577112777564</v>
       </c>
       <c r="H17" t="n">
-        <v>2.410532417226324</v>
+        <v>1.157030317606176</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02789775531726428</v>
+        <v>0.2804697372974273</v>
       </c>
       <c r="J17" t="n">
-        <v>1.136663326149741</v>
+        <v>0.05535704978574002</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5822807354394304</v>
+        <v>0.1679133880454268</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9651162927913159</v>
+        <v>0.3303063725414943</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4349767652298482</v>
+        <v>0.2318097735812182</v>
       </c>
       <c r="N17" t="n">
-        <v>1.018353124635319</v>
+        <v>1.005212443745331</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4534946266517178</v>
+        <v>0.2416783955549544</v>
       </c>
       <c r="P17" t="n">
-        <v>125.3298506503388</v>
+        <v>127.8473527404478</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.6812759672991</v>
+        <v>202.1987780574081</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.971604463148229</v>
+        <v>0.9919756276953263</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6387572958164116</v>
+        <v>0.8269720247459514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9925387973594993</v>
+        <v>0.7706569239999277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1307773442693168</v>
+        <v>0.9975779010473053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.858162508098249</v>
+        <v>0.9863728721259351</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1898810856772172</v>
+        <v>0.05365901455019025</v>
       </c>
       <c r="H18" t="n">
-        <v>2.415631626245361</v>
+        <v>1.15703886724439</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02700141509000379</v>
+        <v>0.2802638328234465</v>
       </c>
       <c r="J18" t="n">
-        <v>1.137569883941767</v>
+        <v>0.05507891085855371</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5822859308961763</v>
+        <v>0.1676713718410001</v>
       </c>
       <c r="L18" t="n">
-        <v>0.969058922090095</v>
+        <v>0.3296441300566745</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4357534689216108</v>
+        <v>0.2316441550097698</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018418726606554</v>
+        <v>1.00520499825168</v>
       </c>
       <c r="O18" t="n">
-        <v>0.454304396227637</v>
+        <v>0.2415057262580417</v>
       </c>
       <c r="P18" t="n">
-        <v>125.3227145352271</v>
+        <v>127.8502115977069</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.6741398521874</v>
+        <v>202.2016369146671</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9714663956785866</v>
+        <v>0.9919883572090442</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6378840288169932</v>
+        <v>0.8269705777975859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.992808492958439</v>
+        <v>0.7708452793818926</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1296008345731494</v>
+        <v>0.9975914732413659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8580939192309756</v>
+        <v>0.9863947674146923</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1908043434824586</v>
+        <v>0.05357389223334445</v>
       </c>
       <c r="H19" t="n">
-        <v>2.421471166691497</v>
+        <v>1.157048542994773</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02602541119816641</v>
+        <v>0.2800336571311905</v>
       </c>
       <c r="J19" t="n">
-        <v>1.139109606807596</v>
+        <v>0.05477027703251321</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5825675090028813</v>
+        <v>0.1674019670818518</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9734369958266043</v>
+        <v>0.3289062298925762</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4368115651885359</v>
+        <v>0.2314603469999655</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01850828388416</v>
+        <v>1.005196741269809</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4554075378432065</v>
+        <v>0.2413140931607251</v>
       </c>
       <c r="P19" t="n">
-        <v>125.3130135112879</v>
+        <v>127.8533868295374</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.6644388282481</v>
+        <v>202.2048121464977</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9712813709844371</v>
+        <v>0.9920024389636286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6368815474838697</v>
+        <v>0.8269689037225881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9931013379468258</v>
+        <v>0.7710531007212594</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1277942052115866</v>
+        <v>0.9976064990285171</v>
       </c>
       <c r="F20" t="n">
-        <v>0.85793500153603</v>
+        <v>0.9864189723527645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1920416044641965</v>
+        <v>0.05347972747559776</v>
       </c>
       <c r="H20" t="n">
-        <v>2.428174763982096</v>
+        <v>1.157059737541992</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02496563176722902</v>
+        <v>0.2797796934793146</v>
       </c>
       <c r="J20" t="n">
-        <v>1.141473980469061</v>
+        <v>0.05442858827113716</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5832199143485803</v>
+        <v>0.1671041438567822</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9782820155402463</v>
+        <v>0.328092305509405</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4382255178149676</v>
+        <v>0.2312568430892322</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018628299901987</v>
+        <v>1.005187607158727</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4568816853602308</v>
+        <v>0.2411019256672007</v>
       </c>
       <c r="P20" t="n">
-        <v>125.3000864810211</v>
+        <v>127.8569052451608</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.6515117979813</v>
+        <v>202.2083305621211</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.97103677273585</v>
+        <v>0.9920180449636374</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6357278327555704</v>
+        <v>0.8269669978683483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9934185766658529</v>
+        <v>0.7712853062367651</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1251703143129216</v>
+        <v>0.9976231393736401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8576566475618153</v>
+        <v>0.9864458811518196</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19367723407877</v>
+        <v>0.05337537008167991</v>
       </c>
       <c r="H21" t="n">
-        <v>2.435889659682601</v>
+        <v>1.157072481998069</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02381757363936419</v>
+        <v>0.2794959316631159</v>
       </c>
       <c r="J21" t="n">
-        <v>1.14490792141088</v>
+        <v>0.05405018420772346</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5843626418518738</v>
+        <v>0.1667730516931319</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9836579343485444</v>
+        <v>0.3271814895915981</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4400877572470859</v>
+        <v>0.2310311019791056</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018786958225395</v>
+        <v>1.005177484347911</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4588232041803414</v>
+        <v>0.2408665742906675</v>
       </c>
       <c r="P21" t="n">
-        <v>125.2831244946727</v>
+        <v>127.8608117476855</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.6345498116329</v>
+        <v>202.2122370646458</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9707167015997912</v>
+        <v>0.9920353103937252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6343965840285308</v>
+        <v>0.8269647795375233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9937608917296096</v>
+        <v>0.7715434159747554</v>
       </c>
       <c r="E22" t="n">
-        <v>0.121491154213103</v>
+        <v>0.9976415426847787</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8572211412657819</v>
+        <v>0.9864757041873859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1958175512393869</v>
+        <v>0.05325991607118293</v>
       </c>
       <c r="H22" t="n">
-        <v>2.444791726050151</v>
+        <v>1.15708731598651</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02257876649614553</v>
+        <v>0.2791805141422565</v>
       </c>
       <c r="J22" t="n">
-        <v>1.149722915244924</v>
+        <v>0.05363169002003761</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5861505273086512</v>
+        <v>0.1664061020811471</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9896114442189643</v>
+        <v>0.3261716253002996</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4425127695777681</v>
+        <v>0.2307810999002798</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018994571935271</v>
+        <v>1.005166285150016</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4613514543064083</v>
+        <v>0.2406059291057704</v>
       </c>
       <c r="P22" t="n">
-        <v>125.2611438285907</v>
+        <v>127.8651425488594</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.6125691455509</v>
+        <v>202.2165678658196</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9703017710416699</v>
+        <v>0.9920544047665942</v>
       </c>
       <c r="C23" t="n">
-        <v>0.632856504787862</v>
+        <v>0.8269622168501327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9941287509646656</v>
+        <v>0.7718289163636699</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1164698129808049</v>
+        <v>0.9976618860239753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8565827955838209</v>
+        <v>0.9865086806573584</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1985921937921232</v>
+        <v>0.05313223191188652</v>
       </c>
       <c r="H23" t="n">
-        <v>2.455090243023917</v>
+        <v>1.157104452688891</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02124751731568201</v>
+        <v>0.2788316244584461</v>
       </c>
       <c r="J23" t="n">
-        <v>1.156294449621297</v>
+        <v>0.05316907928940186</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5887711299763271</v>
+        <v>0.166000351873924</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9962031128969194</v>
+        <v>0.3250500879776261</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4456368407034176</v>
+        <v>0.2305042991180132</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019263716081079</v>
+        <v>1.005153899610858</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4646085236075955</v>
+        <v>0.2403173443411461</v>
       </c>
       <c r="P23" t="n">
-        <v>125.2330036686525</v>
+        <v>127.8699430617926</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.5844289856127</v>
+        <v>202.2213683787529</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9697676525531529</v>
+        <v>0.9920754857675752</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6310701258151239</v>
+        <v>0.8269592019510493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9945219994535051</v>
+        <v>0.7721461865101528</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1097438464094224</v>
+        <v>0.997684375702549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.855683979779948</v>
+        <v>0.986545218163761</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2021638465842265</v>
+        <v>0.05299126316125782</v>
       </c>
       <c r="H24" t="n">
-        <v>2.467035767440135</v>
+        <v>1.157124613332944</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01982438673040152</v>
+        <v>0.2784439112174599</v>
       </c>
       <c r="J24" t="n">
-        <v>1.165096862859793</v>
+        <v>0.05265766046399951</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5924610415084967</v>
+        <v>0.1655507858407297</v>
       </c>
       <c r="L24" t="n">
-        <v>1.003499272764066</v>
+        <v>0.3238046300310562</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4496263410702563</v>
+        <v>0.2301983126811702</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019610171316874</v>
+        <v>1.005140225448059</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4687678652644547</v>
+        <v>0.2399983314282075</v>
       </c>
       <c r="P24" t="n">
-        <v>125.1973535773165</v>
+        <v>127.8752564500652</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.5487788942768</v>
+        <v>202.2266817670255</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9690842701259327</v>
+        <v>0.992098759636112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6289922275627033</v>
+        <v>0.8269557035754864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.994940187524691</v>
+        <v>0.7724985432988385</v>
       </c>
       <c r="E25" t="n">
-        <v>0.100861673024114</v>
+        <v>0.997709203955366</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8544526598589313</v>
+        <v>0.9865856583225555</v>
       </c>
       <c r="G25" t="n">
-        <v>0.206733628021735</v>
+        <v>0.0528356306951854</v>
       </c>
       <c r="H25" t="n">
-        <v>2.480930682621914</v>
+        <v>1.157148006986441</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01831100206041728</v>
+        <v>0.2780133210909091</v>
       </c>
       <c r="J25" t="n">
-        <v>1.176721149088944</v>
+        <v>0.05209306209275466</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5975159833072203</v>
+        <v>0.1650532006587895</v>
       </c>
       <c r="L25" t="n">
-        <v>1.011571102265411</v>
+        <v>0.3224202377985534</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4546796982731195</v>
+        <v>0.2298600241346576</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0200534464048</v>
+        <v>1.005125128884684</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4740363543453354</v>
+        <v>0.239645641237916</v>
       </c>
       <c r="P25" t="n">
-        <v>125.1526482710662</v>
+        <v>127.8811389841773</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.5040735880265</v>
+        <v>202.2325643011375</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9682146042791846</v>
+        <v>0.992124454428385</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6265687792170147</v>
+        <v>0.8269516426427839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9953818892039651</v>
+        <v>0.7728891845175597</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08927712869585192</v>
+        <v>0.9977366354636678</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8528008158004662</v>
+        <v>0.9866304069656648</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2125490875433826</v>
+        <v>0.05266380950094184</v>
       </c>
       <c r="H26" t="n">
-        <v>2.497136292868486</v>
+        <v>1.157175162462122</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01671252377713197</v>
+        <v>0.2775359462901211</v>
       </c>
       <c r="J26" t="n">
-        <v>1.191882084736602</v>
+        <v>0.05146926528264388</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6042973042568668</v>
+        <v>0.1645026028771061</v>
       </c>
       <c r="L26" t="n">
-        <v>1.020486367136452</v>
+        <v>0.3208833363975564</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4610304627065142</v>
+        <v>0.2294859679826674</v>
       </c>
       <c r="N26" t="n">
-        <v>1.020617553981069</v>
+        <v>1.005108461992399</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4806574839685543</v>
+        <v>0.2392556607411326</v>
       </c>
       <c r="P26" t="n">
-        <v>125.0971646341799</v>
+        <v>127.887653572154</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.4485899511401</v>
+        <v>202.2390788891142</v>
       </c>
     </row>
   </sheetData>
